--- a/src/loadFiles/update company/CI hardware Z.xlsx
+++ b/src/loadFiles/update company/CI hardware Z.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jdb\Sandbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p62956\OneDrive - NRB\Bureau\local\Backend\test_cmdb\src\loadFiles\update company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{AA99F623-2CDD-4AA6-BE0D-997B77EBD9BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96092305-0B33-4597-8CCC-F62A225AE04A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3ED9C8-BF20-410B-A8B3-88CA7AA253D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hardware IBM" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'hardware IBM'!$B$1:$L$143</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,9 +83,6 @@
     <t>PROD-NRB</t>
   </si>
   <si>
-    <t>AGC,AME-LIFE,ARCELOR-MITTAL,ETHIAS,FMSB,LLD,NRB,PARTENA,PROVINCE LIEGE,RESA,SDWORX,SIBELGA,UNMS</t>
-  </si>
-  <si>
     <t>NRB</t>
   </si>
   <si>
@@ -144,9 +140,6 @@
     <t>Mainframe Appliance Console</t>
   </si>
   <si>
-    <t>ACERTA,AGC,AME-LIFE,ARCELOR-MITTAL,DIETEREN,ETHIAS,ETNIC,FMSB,LLD,NRB,PARTENA,PROVINCE LIEGE,RESA,SDWORX,SECUREX,SIBELGA,UNMS,VCST</t>
-  </si>
-  <si>
     <t>Hardware Management Console Local Pupitrage</t>
   </si>
   <si>
@@ -165,9 +158,6 @@
     <t>HMC BDC</t>
   </si>
   <si>
-    <t>ACERTA,AGC,AME-LIFE,ARCELOR-MITTAL,DIETEREN,ETHIAS,ETNIC,FMSB,IPEX,LLD,NRB,PARTENA,PROVINCE LIEGE,RESA,SDWORX,SECUREX,SIBELGA,UNMS,VCST</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hardware Management Console BDC </t>
   </si>
   <si>
@@ -183,9 +173,6 @@
     <t>Mainframe Drive Enclosure</t>
   </si>
   <si>
-    <t>AGC,AME-LIFE,DIETEREN,ETHIAS,ETNIC,FMSB,NRB,PARTENA,PROVINCE LIEGE,RESA,SIBELGA,VCST</t>
-  </si>
-  <si>
     <t>DS8886 B10 mutualisé</t>
   </si>
   <si>
@@ -249,9 +236,6 @@
     <t>VTS 7770 78HDG60</t>
   </si>
   <si>
-    <t>AGC,DIETEREN,ETNIC,FMSB,PARTENA,UNMS,VCST</t>
-  </si>
-  <si>
     <t>VTS 7770 B10 mutualisé</t>
   </si>
   <si>
@@ -295,13 +279,28 @@
   </si>
   <si>
     <t>order by type, subtype, logical_name</t>
+  </si>
+  <si>
+    <t>AGC AUTOMOTIVE BELGIUM,AME-LIFE,ARCELOR-MITTAL,ETHIAS,FMSB,LLD,NRB,PARTENA,PROVINCE LIEGE,RESA,SDWORX,SIBELGA,UNMS</t>
+  </si>
+  <si>
+    <t>ACERTA,AGC AUTOMOTIVE BELGIUM,AME-LIFE,ARCELOR-MITTAL,DIETEREN,ETHIAS,ETNIC,FMSB,LLD,NRB,PARTENA,PROVINCE LIEGE,RESA,SDWORX,SECUREX,SIBELGA,UNMS,VCST</t>
+  </si>
+  <si>
+    <t>ACERTA,AGC AUTOMOTIVE BELGIUM,AME-LIFE,ARCELOR-MITTAL,DIETEREN,ETHIAS,ETNIC,FMSB,IPEX,LLD,NRB,PARTENA,PROVINCE LIEGE,RESA,SDWORX,SECUREX,SIBELGA,UNMS,VCST</t>
+  </si>
+  <si>
+    <t>AGC AUTOMOTIVE BELGIUM,AME-LIFE,DIETEREN,ETHIAS,ETNIC,FMSB,NRB,PARTENA,PROVINCE LIEGE,RESA,SIBELGA,VCST</t>
+  </si>
+  <si>
+    <t>AGC AUTOMOTIVE BELGIUM,DIETEREN,ETNIC,FMSB,PARTENA,UNMS,VCST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,11 +942,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1238,30 +1237,30 @@
   <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="141" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="46.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1300,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1318,33 +1317,33 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1">
-      <c r="A3" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1360,33 +1359,33 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1402,33 +1401,33 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1">
-      <c r="A5" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1444,39 +1443,39 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>_xlfn.CONCAT("Z_",A6)</f>
@@ -1486,39 +1485,39 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:D8" si="1">_xlfn.CONCAT("Z_",A7)</f>
@@ -1528,39 +1527,39 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1">
-      <c r="A8" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1570,39 +1569,39 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="A9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>_xlfn.CONCAT("Z_",A9)</f>
@@ -1612,39 +1611,39 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ref="D10:D12" si="2">_xlfn.CONCAT("Z_",A10)</f>
@@ -1654,39 +1653,39 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
       <c r="M10" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1696,39 +1695,39 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1738,39 +1737,39 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1">
-      <c r="A13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>_xlfn.CONCAT("Z_",A13)</f>
@@ -1780,39 +1779,39 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" ref="D14:D16" si="3">_xlfn.CONCAT("Z_",A14)</f>
@@ -1822,39 +1821,39 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1">
-      <c r="A15" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1864,39 +1863,39 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1906,91 +1905,91 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="6" customFormat="1">
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="16"/>
       <c r="F17" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="K17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="L17" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="6" customFormat="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="16"/>
       <c r="F18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="6" customFormat="1">
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="16"/>
       <c r="G19" s="9"/>
@@ -1999,10 +1998,10 @@
       <c r="K19" s="7"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1">
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2017,7 +2016,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2032,7 +2031,7 @@
       <c r="L22"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1">
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2047,7 +2046,7 @@
       <c r="L23"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1">
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2062,7 +2061,7 @@
       <c r="L24"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1">
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2077,7 +2076,7 @@
       <c r="L25"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1">
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2092,7 +2091,7 @@
       <c r="L26"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1">
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2107,7 +2106,7 @@
       <c r="L27"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2122,7 +2121,7 @@
       <c r="L28"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1">
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2137,7 +2136,7 @@
       <c r="L29"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1">
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2152,7 +2151,7 @@
       <c r="L30"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1">
+    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2167,7 +2166,7 @@
       <c r="L31"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1">
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2182,7 +2181,7 @@
       <c r="L32"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1">
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2197,7 +2196,7 @@
       <c r="L33"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
+    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2212,7 +2211,7 @@
       <c r="L34"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1">
+    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2227,7 +2226,7 @@
       <c r="L35"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1">
+    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2242,7 +2241,7 @@
       <c r="L36"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1">
+    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2257,7 +2256,7 @@
       <c r="L37"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1">
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2272,7 +2271,7 @@
       <c r="L38"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1">
+    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2287,7 +2286,7 @@
       <c r="L39"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1">
+    <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2302,7 +2301,7 @@
       <c r="L40"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1">
+    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2317,7 +2316,7 @@
       <c r="L41"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1">
+    <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2332,7 +2331,7 @@
       <c r="L42"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1">
+    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2347,7 +2346,7 @@
       <c r="L43"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1">
+    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2362,7 +2361,7 @@
       <c r="L44"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1">
+    <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2377,7 +2376,7 @@
       <c r="L45"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1">
+    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2392,7 +2391,7 @@
       <c r="L46"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" s="4" customFormat="1">
+    <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2407,7 +2406,7 @@
       <c r="L47"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1">
+    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2422,7 +2421,7 @@
       <c r="L48"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1">
+    <row r="49" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2437,7 +2436,7 @@
       <c r="L49"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1">
+    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -2452,7 +2451,7 @@
       <c r="L50"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1">
+    <row r="51" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -2467,7 +2466,7 @@
       <c r="L51"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1">
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -2482,7 +2481,7 @@
       <c r="L52"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" s="4" customFormat="1">
+    <row r="53" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -2497,7 +2496,7 @@
       <c r="L53"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" s="4" customFormat="1">
+    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -2512,7 +2511,7 @@
       <c r="L54"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" s="4" customFormat="1">
+    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -2527,7 +2526,7 @@
       <c r="L55"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1">
+    <row r="56" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -2542,7 +2541,7 @@
       <c r="L56"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1">
+    <row r="57" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -2557,7 +2556,7 @@
       <c r="L57"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1">
+    <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -2572,7 +2571,7 @@
       <c r="L58"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" s="4" customFormat="1">
+    <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -2587,7 +2586,7 @@
       <c r="L59"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1">
+    <row r="60" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -2602,7 +2601,7 @@
       <c r="L60"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1">
+    <row r="61" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -2617,7 +2616,7 @@
       <c r="L61"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1">
+    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -2632,7 +2631,7 @@
       <c r="L62"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1">
+    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -2647,7 +2646,7 @@
       <c r="L63"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1">
+    <row r="64" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -2662,7 +2661,7 @@
       <c r="L64"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1">
+    <row r="65" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -2677,7 +2676,7 @@
       <c r="L65"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1">
+    <row r="66" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2692,7 +2691,7 @@
       <c r="L66"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1">
+    <row r="67" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -2707,7 +2706,7 @@
       <c r="L67"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1">
+    <row r="68" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -2722,7 +2721,7 @@
       <c r="L68"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1">
+    <row r="69" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -2737,7 +2736,7 @@
       <c r="L69"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1">
+    <row r="70" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -2752,7 +2751,7 @@
       <c r="L70"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1">
+    <row r="71" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -2767,7 +2766,7 @@
       <c r="L71"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="4" customFormat="1">
+    <row r="72" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -2782,7 +2781,7 @@
       <c r="L72"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" s="3" customFormat="1">
+    <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -2797,7 +2796,7 @@
       <c r="L73"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" s="3" customFormat="1">
+    <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -2812,7 +2811,7 @@
       <c r="L74"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" s="3" customFormat="1">
+    <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -2827,7 +2826,7 @@
       <c r="L75"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" s="2" customFormat="1">
+    <row r="76" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -2841,7 +2840,7 @@
       <c r="L76"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" s="4" customFormat="1">
+    <row r="77" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -2856,7 +2855,7 @@
       <c r="L77"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" s="4" customFormat="1">
+    <row r="78" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -2871,7 +2870,7 @@
       <c r="L78"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" s="4" customFormat="1">
+    <row r="79" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -2886,7 +2885,7 @@
       <c r="L79"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" s="4" customFormat="1">
+    <row r="80" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -2901,7 +2900,7 @@
       <c r="L80"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" s="4" customFormat="1">
+    <row r="81" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -2916,7 +2915,7 @@
       <c r="L81"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" s="4" customFormat="1">
+    <row r="82" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -2931,7 +2930,7 @@
       <c r="L82"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" s="4" customFormat="1">
+    <row r="83" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -2946,7 +2945,7 @@
       <c r="L83"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" s="4" customFormat="1">
+    <row r="84" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -2961,7 +2960,7 @@
       <c r="L84"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:13" s="4" customFormat="1">
+    <row r="85" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -2976,7 +2975,7 @@
       <c r="L85"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13" s="4" customFormat="1">
+    <row r="86" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -2991,7 +2990,7 @@
       <c r="L86"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" s="4" customFormat="1">
+    <row r="87" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -3006,7 +3005,7 @@
       <c r="L87"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" s="4" customFormat="1">
+    <row r="88" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -3021,7 +3020,7 @@
       <c r="L88"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" s="4" customFormat="1">
+    <row r="89" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -3036,7 +3035,7 @@
       <c r="L89"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" s="3" customFormat="1">
+    <row r="90" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -3051,7 +3050,7 @@
       <c r="L90"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" s="3" customFormat="1">
+    <row r="91" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -3066,7 +3065,7 @@
       <c r="L91"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" s="3" customFormat="1">
+    <row r="92" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -3081,7 +3080,7 @@
       <c r="L92"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" s="3" customFormat="1">
+    <row r="93" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -3096,7 +3095,7 @@
       <c r="L93"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:13" s="3" customFormat="1">
+    <row r="94" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -3111,7 +3110,7 @@
       <c r="L94"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" s="4" customFormat="1">
+    <row r="95" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -3126,7 +3125,7 @@
       <c r="L95"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" s="4" customFormat="1">
+    <row r="96" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -3141,7 +3140,7 @@
       <c r="L96"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" s="4" customFormat="1">
+    <row r="97" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -3156,7 +3155,7 @@
       <c r="L97"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" s="4" customFormat="1">
+    <row r="98" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -3171,7 +3170,7 @@
       <c r="L98"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" s="4" customFormat="1">
+    <row r="99" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -3186,7 +3185,7 @@
       <c r="L99"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" s="4" customFormat="1">
+    <row r="100" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -3201,7 +3200,7 @@
       <c r="L100"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" s="4" customFormat="1">
+    <row r="101" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -3216,7 +3215,7 @@
       <c r="L101"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" s="4" customFormat="1">
+    <row r="102" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -3231,7 +3230,7 @@
       <c r="L102"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" s="4" customFormat="1">
+    <row r="103" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -3246,7 +3245,7 @@
       <c r="L103"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="1:13" s="4" customFormat="1">
+    <row r="104" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -3261,7 +3260,7 @@
       <c r="L104"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" s="4" customFormat="1">
+    <row r="105" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -3276,7 +3275,7 @@
       <c r="L105"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" s="4" customFormat="1">
+    <row r="106" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -3291,7 +3290,7 @@
       <c r="L106"/>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="1:13" s="4" customFormat="1">
+    <row r="107" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -3306,7 +3305,7 @@
       <c r="L107"/>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="1:13" s="4" customFormat="1">
+    <row r="108" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -3321,7 +3320,7 @@
       <c r="L108"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" s="4" customFormat="1">
+    <row r="109" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -3336,7 +3335,7 @@
       <c r="L109"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" s="4" customFormat="1">
+    <row r="110" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -3351,7 +3350,7 @@
       <c r="L110"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" s="4" customFormat="1">
+    <row r="111" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -3366,7 +3365,7 @@
       <c r="L111"/>
       <c r="M111" s="14"/>
     </row>
-    <row r="112" spans="1:13" s="4" customFormat="1">
+    <row r="112" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -3381,7 +3380,7 @@
       <c r="L112"/>
       <c r="M112" s="14"/>
     </row>
-    <row r="113" spans="1:13" s="4" customFormat="1">
+    <row r="113" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -3396,7 +3395,7 @@
       <c r="L113"/>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13" s="4" customFormat="1">
+    <row r="114" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -3411,7 +3410,7 @@
       <c r="L114"/>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="1:13" s="4" customFormat="1">
+    <row r="115" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -3426,7 +3425,7 @@
       <c r="L115"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13" s="4" customFormat="1">
+    <row r="116" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -3441,7 +3440,7 @@
       <c r="L116"/>
       <c r="M116" s="14"/>
     </row>
-    <row r="117" spans="1:13" s="2" customFormat="1">
+    <row r="117" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -3455,7 +3454,7 @@
       <c r="L117"/>
       <c r="M117" s="14"/>
     </row>
-    <row r="118" spans="1:13" s="2" customFormat="1">
+    <row r="118" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -3469,7 +3468,7 @@
       <c r="L118"/>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="1:13" s="3" customFormat="1">
+    <row r="119" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -3484,7 +3483,7 @@
       <c r="L119"/>
       <c r="M119" s="14"/>
     </row>
-    <row r="120" spans="1:13" s="3" customFormat="1">
+    <row r="120" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -3499,7 +3498,7 @@
       <c r="L120"/>
       <c r="M120" s="14"/>
     </row>
-    <row r="121" spans="1:13" s="3" customFormat="1">
+    <row r="121" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -3514,7 +3513,7 @@
       <c r="L121"/>
       <c r="M121" s="14"/>
     </row>
-    <row r="122" spans="1:13" s="3" customFormat="1">
+    <row r="122" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -3529,7 +3528,7 @@
       <c r="L122"/>
       <c r="M122" s="14"/>
     </row>
-    <row r="123" spans="1:13" s="3" customFormat="1">
+    <row r="123" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -3544,7 +3543,7 @@
       <c r="L123"/>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="1:13" s="3" customFormat="1">
+    <row r="124" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -3559,7 +3558,7 @@
       <c r="L124"/>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" spans="1:13" s="3" customFormat="1">
+    <row r="125" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -3574,7 +3573,7 @@
       <c r="L125"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:13" s="3" customFormat="1">
+    <row r="126" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -3589,7 +3588,7 @@
       <c r="L126"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:13" s="4" customFormat="1">
+    <row r="127" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -3604,7 +3603,7 @@
       <c r="L127"/>
       <c r="M127" s="14"/>
     </row>
-    <row r="128" spans="1:13" s="4" customFormat="1">
+    <row r="128" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -3619,7 +3618,7 @@
       <c r="L128"/>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="1:13" s="4" customFormat="1">
+    <row r="129" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -3634,7 +3633,7 @@
       <c r="L129"/>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="1:13" s="4" customFormat="1">
+    <row r="130" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -3649,7 +3648,7 @@
       <c r="L130"/>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="1:13" s="4" customFormat="1">
+    <row r="131" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -3664,7 +3663,7 @@
       <c r="L131"/>
       <c r="M131" s="14"/>
     </row>
-    <row r="132" spans="1:13" s="4" customFormat="1">
+    <row r="132" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -3679,7 +3678,7 @@
       <c r="L132"/>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="1:13" s="4" customFormat="1">
+    <row r="133" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -3694,19 +3693,19 @@
       <c r="L133"/>
       <c r="M133" s="14"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3875,6 +3874,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3883,20 +3888,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7DDEC5B-9AAC-4E36-9AFB-ED0E4EDBA024}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7DDEC5B-9AAC-4E36-9AFB-ED0E4EDBA024}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE60736-CEC9-4D62-AB08-80A6F8F00C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5465904-A52B-47EF-8ED4-973A40E50C24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5465904-A52B-47EF-8ED4-973A40E50C24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FE60736-CEC9-4D62-AB08-80A6F8F00C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>